--- a/repRisk-backend/resources/UTC_CompaniesInArticle.xlsx
+++ b/repRisk-backend/resources/UTC_CompaniesInArticle.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Job Search\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Job Search\Assig_RepRisk\repRisk\repRisk-backend\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD1D2B1-F556-44D5-BD87-024680E62CCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04916F91-75D2-4226-B9BD-10461E6BF50C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F63140FF-701D-4004-9F3D-0B1A66E0D047}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$K$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="90">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -290,13 +290,37 @@
   </si>
   <si>
     <t>Data after ";"  inside the quotes will be lost</t>
+  </si>
+  <si>
+    <t>Test Designed by:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Designed date: </t>
+  </si>
+  <si>
+    <t>Christy Maria Xavier</t>
+  </si>
+  <si>
+    <t>9th Oct-2020</t>
+  </si>
+  <si>
+    <t>Project Name:</t>
+  </si>
+  <si>
+    <t>Module Name:</t>
+  </si>
+  <si>
+    <t>RepRisk-Assignment</t>
+  </si>
+  <si>
+    <t>CompaniesInArticle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,8 +350,38 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,8 +394,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -349,11 +409,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -370,9 +446,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{512A60B9-37DC-4965-8868-16F3E6973B5B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -684,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9BFA33-2FA7-461E-87BA-C781659E69EA}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,287 +797,172 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="6" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="7" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="I7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="8" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>43</v>
+      <c r="G8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>19</v>
@@ -999,33 +974,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>20</v>
@@ -1033,31 +1008,34 @@
       <c r="K9" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="L9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>20</v>
@@ -1071,28 +1049,28 @@
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>20</v>
@@ -1104,33 +1082,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>20</v>
@@ -1139,30 +1117,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>20</v>
@@ -1174,30 +1152,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>20</v>
@@ -1211,31 +1189,31 @@
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>20</v>
@@ -1246,28 +1224,28 @@
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>20</v>
@@ -1281,98 +1259,98 @@
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>19</v>
@@ -1384,41 +1362,181 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="J21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="1" t="s">
+      <c r="K24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>81</v>
       </c>
     </row>
